--- a/reports/report.xlsx
+++ b/reports/report.xlsx
@@ -44,7 +44,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>20</t>
+    <t>30</t>
   </si>
   <si>
     <t>515</t>
